--- a/Code/Results/Cases/Case_1_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007133070117564</v>
+        <v>1.046498230165854</v>
       </c>
       <c r="D2">
-        <v>1.036544413124885</v>
+        <v>1.05209406302</v>
       </c>
       <c r="E2">
-        <v>1.01217907207855</v>
+        <v>1.044061878458996</v>
       </c>
       <c r="F2">
-        <v>1.034599622321806</v>
+        <v>1.059866396611977</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047949686105461</v>
+        <v>1.043381393377614</v>
       </c>
       <c r="J2">
-        <v>1.029102505512308</v>
+        <v>1.051552304943406</v>
       </c>
       <c r="K2">
-        <v>1.047517062985873</v>
+        <v>1.054843747740171</v>
       </c>
       <c r="L2">
-        <v>1.023471301106303</v>
+        <v>1.046833987233666</v>
       </c>
       <c r="M2">
-        <v>1.045597089359486</v>
+        <v>1.062594733175358</v>
       </c>
       <c r="N2">
-        <v>1.030563949109862</v>
+        <v>1.053045629831161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.013650896835905</v>
+        <v>1.047825331144027</v>
       </c>
       <c r="D3">
-        <v>1.040388883959751</v>
+        <v>1.052889814815167</v>
       </c>
       <c r="E3">
-        <v>1.017568478880774</v>
+        <v>1.045203821032957</v>
       </c>
       <c r="F3">
-        <v>1.039559980244069</v>
+        <v>1.060927931873474</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049903456604225</v>
+        <v>1.043714129534724</v>
       </c>
       <c r="J3">
-        <v>1.033776217901042</v>
+        <v>1.052525638492577</v>
       </c>
       <c r="K3">
-        <v>1.050529801940743</v>
+        <v>1.05545232037632</v>
       </c>
       <c r="L3">
-        <v>1.027981396325916</v>
+        <v>1.047786227858745</v>
       </c>
       <c r="M3">
-        <v>1.049710519598567</v>
+        <v>1.063469956949974</v>
       </c>
       <c r="N3">
-        <v>1.035244298706251</v>
+        <v>1.054020345625614</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017757705306229</v>
+        <v>1.048683522913168</v>
       </c>
       <c r="D4">
-        <v>1.042819100818127</v>
+        <v>1.053404517575569</v>
       </c>
       <c r="E4">
-        <v>1.020970246810155</v>
+        <v>1.045942514299506</v>
       </c>
       <c r="F4">
-        <v>1.042696484583626</v>
+        <v>1.06161491885446</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051125724637715</v>
+        <v>1.043928042891626</v>
       </c>
       <c r="J4">
-        <v>1.036717822285939</v>
+        <v>1.053154450728691</v>
       </c>
       <c r="K4">
-        <v>1.052426808594864</v>
+        <v>1.055845250439352</v>
       </c>
       <c r="L4">
-        <v>1.030821999661181</v>
+        <v>1.048401592720704</v>
       </c>
       <c r="M4">
-        <v>1.052305526914358</v>
+        <v>1.064035786435757</v>
       </c>
       <c r="N4">
-        <v>1.038190080506781</v>
+        <v>1.05465005084723</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019459006341171</v>
+        <v>1.049044182985811</v>
       </c>
       <c r="D5">
-        <v>1.04382758304459</v>
+        <v>1.053620850568019</v>
       </c>
       <c r="E5">
-        <v>1.022380828850721</v>
+        <v>1.04625301044205</v>
       </c>
       <c r="F5">
-        <v>1.043998323558237</v>
+        <v>1.061903753724952</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051629890680595</v>
+        <v>1.044017640075369</v>
       </c>
       <c r="J5">
-        <v>1.037935581736623</v>
+        <v>1.053418566227334</v>
       </c>
       <c r="K5">
-        <v>1.053212250552524</v>
+        <v>1.056010233562708</v>
       </c>
       <c r="L5">
-        <v>1.031998415247965</v>
+        <v>1.048660102921622</v>
       </c>
       <c r="M5">
-        <v>1.053381183754669</v>
+        <v>1.064273542676538</v>
       </c>
       <c r="N5">
-        <v>1.039409569315564</v>
+        <v>1.054914541420175</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019743220300857</v>
+        <v>1.049104732242517</v>
       </c>
       <c r="D6">
-        <v>1.043996154417883</v>
+        <v>1.053657171019764</v>
       </c>
       <c r="E6">
-        <v>1.022616553648806</v>
+        <v>1.046305141211187</v>
       </c>
       <c r="F6">
-        <v>1.044215947462926</v>
+        <v>1.061952251896366</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051713985234317</v>
+        <v>1.044032664385517</v>
       </c>
       <c r="J6">
-        <v>1.038138965674075</v>
+        <v>1.053462898536728</v>
       </c>
       <c r="K6">
-        <v>1.053343436274046</v>
+        <v>1.056037922967937</v>
       </c>
       <c r="L6">
-        <v>1.032194921513654</v>
+        <v>1.048703496885129</v>
       </c>
       <c r="M6">
-        <v>1.053560913742983</v>
+        <v>1.064313456075441</v>
       </c>
       <c r="N6">
-        <v>1.039613242081535</v>
+        <v>1.054958936686534</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017780535557355</v>
+        <v>1.048688342552655</v>
       </c>
       <c r="D7">
-        <v>1.042832627279882</v>
+        <v>1.053407408416065</v>
       </c>
       <c r="E7">
-        <v>1.020989170564029</v>
+        <v>1.045946663359947</v>
       </c>
       <c r="F7">
-        <v>1.042713944642012</v>
+        <v>1.061618778178576</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051132498878381</v>
+        <v>1.043929241397357</v>
       </c>
       <c r="J7">
-        <v>1.0367341671526</v>
+        <v>1.053157980782134</v>
       </c>
       <c r="K7">
-        <v>1.052437350465502</v>
+        <v>1.055847455755513</v>
       </c>
       <c r="L7">
-        <v>1.030837787762193</v>
+        <v>1.048405047687585</v>
       </c>
       <c r="M7">
-        <v>1.052319959092054</v>
+        <v>1.064038963810641</v>
       </c>
       <c r="N7">
-        <v>1.038206448585028</v>
+        <v>1.054653585913753</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009359520683926</v>
+        <v>1.046946842242331</v>
       </c>
       <c r="D8">
-        <v>1.03785590926398</v>
+        <v>1.052363033031428</v>
       </c>
       <c r="E8">
-        <v>1.014018756341286</v>
+        <v>1.044447850132393</v>
       </c>
       <c r="F8">
-        <v>1.036291631971852</v>
+        <v>1.060225126742871</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048618888270566</v>
+        <v>1.04349413111138</v>
       </c>
       <c r="J8">
-        <v>1.030699663475722</v>
+        <v>1.051881455857084</v>
       </c>
       <c r="K8">
-        <v>1.048546397779395</v>
+        <v>1.055049595502003</v>
       </c>
       <c r="L8">
-        <v>1.025012124796882</v>
+        <v>1.047155967935823</v>
       </c>
       <c r="M8">
-        <v>1.047001464462491</v>
+        <v>1.062890623001984</v>
       </c>
       <c r="N8">
-        <v>1.032163375220761</v>
+        <v>1.053375248176891</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9936098108543528</v>
+        <v>1.043873872385652</v>
       </c>
       <c r="D9">
-        <v>1.028619157747337</v>
+        <v>1.050521150895609</v>
       </c>
       <c r="E9">
-        <v>1.001034114440552</v>
+        <v>1.041804968660973</v>
       </c>
       <c r="F9">
-        <v>1.024376665597928</v>
+        <v>1.057770077548897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04385030709237</v>
+        <v>1.042716745317592</v>
       </c>
       <c r="J9">
-        <v>1.019390258896696</v>
+        <v>1.049624302818434</v>
       </c>
       <c r="K9">
-        <v>1.04126436751131</v>
+        <v>1.053637075250404</v>
       </c>
       <c r="L9">
-        <v>1.014110436110758</v>
+        <v>1.044948725445096</v>
       </c>
       <c r="M9">
-        <v>1.037086252237339</v>
+        <v>1.060863236515641</v>
       </c>
       <c r="N9">
-        <v>1.020837909990026</v>
+        <v>1.051114889722026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9823999270411211</v>
+        <v>1.041822167848874</v>
       </c>
       <c r="D10">
-        <v>1.02210526882208</v>
+        <v>1.049292159605881</v>
       </c>
       <c r="E10">
-        <v>0.9918338231047239</v>
+        <v>1.040041712777995</v>
       </c>
       <c r="F10">
-        <v>1.015973713756505</v>
+        <v>1.056133813259762</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040415498619939</v>
+        <v>1.04219127880502</v>
       </c>
       <c r="J10">
-        <v>1.011329667573892</v>
+        <v>1.048114183920264</v>
       </c>
       <c r="K10">
-        <v>1.036086555442674</v>
+        <v>1.052690929537056</v>
       </c>
       <c r="L10">
-        <v>1.006352102531332</v>
+        <v>1.043472932670255</v>
       </c>
       <c r="M10">
-        <v>1.030060425461353</v>
+        <v>1.059508985467867</v>
       </c>
       <c r="N10">
-        <v>1.012765871702981</v>
+        <v>1.049602626281808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9773525662168786</v>
+        <v>1.040932982696108</v>
       </c>
       <c r="D11">
-        <v>1.019189646771903</v>
+        <v>1.048759733345846</v>
       </c>
       <c r="E11">
-        <v>0.9877027171598745</v>
+        <v>1.039277855585875</v>
       </c>
       <c r="F11">
-        <v>1.012211587678676</v>
+        <v>1.055425380758042</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038860514200522</v>
+        <v>1.041962027129596</v>
       </c>
       <c r="J11">
-        <v>1.007698827639422</v>
+        <v>1.047458985513404</v>
       </c>
       <c r="K11">
-        <v>1.033758526379802</v>
+        <v>1.052280170159948</v>
       </c>
       <c r="L11">
-        <v>1.002860329079874</v>
+        <v>1.042832849968773</v>
       </c>
       <c r="M11">
-        <v>1.026906828131638</v>
+        <v>1.058921934121521</v>
       </c>
       <c r="N11">
-        <v>1.009129875559341</v>
+        <v>1.048946497418058</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9754462909849222</v>
+        <v>1.040602577700281</v>
       </c>
       <c r="D12">
-        <v>1.018091362506101</v>
+        <v>1.048561926132229</v>
       </c>
       <c r="E12">
-        <v>0.9861443522666847</v>
+        <v>1.038994068776345</v>
       </c>
       <c r="F12">
-        <v>1.010794209734911</v>
+        <v>1.055162248097219</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038272081708665</v>
+        <v>1.041876613425126</v>
       </c>
       <c r="J12">
-        <v>1.006327427161147</v>
+        <v>1.047215416511979</v>
       </c>
       <c r="K12">
-        <v>1.032879978753096</v>
+        <v>1.05212743394182</v>
       </c>
       <c r="L12">
-        <v>1.001541907563898</v>
+        <v>1.042594933731784</v>
       </c>
       <c r="M12">
-        <v>1.0257174909642</v>
+        <v>1.058703777830657</v>
       </c>
       <c r="N12">
-        <v>1.007756527535085</v>
+        <v>1.048702582520713</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9758566586771027</v>
+        <v>1.040673456285533</v>
       </c>
       <c r="D13">
-        <v>1.018327657573437</v>
+        <v>1.048604358288578</v>
       </c>
       <c r="E13">
-        <v>0.9864797380756652</v>
+        <v>1.039054944600119</v>
       </c>
       <c r="F13">
-        <v>1.011099169071891</v>
+        <v>1.055218690484245</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038398804681455</v>
+        <v>1.041894946707612</v>
       </c>
       <c r="J13">
-        <v>1.006622654566219</v>
+        <v>1.047267671945964</v>
       </c>
       <c r="K13">
-        <v>1.033069070674102</v>
+        <v>1.052160203718719</v>
       </c>
       <c r="L13">
-        <v>1.001825709291157</v>
+        <v>1.042645974900163</v>
       </c>
       <c r="M13">
-        <v>1.025973441101061</v>
+        <v>1.058750577610451</v>
       </c>
       <c r="N13">
-        <v>1.008052174196935</v>
+        <v>1.048754912163409</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9771956495484324</v>
+        <v>1.040905673830687</v>
       </c>
       <c r="D14">
-        <v>1.019099180419599</v>
+        <v>1.048743383367361</v>
       </c>
       <c r="E14">
-        <v>0.9875744003659391</v>
+        <v>1.039254398843081</v>
       </c>
       <c r="F14">
-        <v>1.012094842427369</v>
+        <v>1.055403629919895</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038812099503779</v>
+        <v>1.041954972103158</v>
       </c>
       <c r="J14">
-        <v>1.007585941284204</v>
+        <v>1.047438856102319</v>
       </c>
       <c r="K14">
-        <v>1.033686192654906</v>
+        <v>1.052267548244004</v>
       </c>
       <c r="L14">
-        <v>1.002751794404332</v>
+        <v>1.042813187038092</v>
       </c>
       <c r="M14">
-        <v>1.026808890840609</v>
+        <v>1.058903903287759</v>
       </c>
       <c r="N14">
-        <v>1.009016828892551</v>
+        <v>1.0489263394209</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9780164007505108</v>
+        <v>1.041048734423542</v>
       </c>
       <c r="D15">
-        <v>1.019572482755884</v>
+        <v>1.048829035936253</v>
       </c>
       <c r="E15">
-        <v>0.9882456368056796</v>
+        <v>1.039377281649306</v>
       </c>
       <c r="F15">
-        <v>1.012705621209637</v>
+        <v>1.055517578587041</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03906528608475</v>
+        <v>1.041991921329159</v>
       </c>
       <c r="J15">
-        <v>1.008176388389896</v>
+        <v>1.047544301839294</v>
       </c>
       <c r="K15">
-        <v>1.034064563098311</v>
+        <v>1.052333665270907</v>
       </c>
       <c r="L15">
-        <v>1.003319498728062</v>
+        <v>1.042916190541015</v>
       </c>
       <c r="M15">
-        <v>1.02732122173705</v>
+        <v>1.058998359100879</v>
       </c>
       <c r="N15">
-        <v>1.009608114500858</v>
+        <v>1.049031934902916</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9827306296930887</v>
+        <v>1.041881163262174</v>
       </c>
       <c r="D16">
-        <v>1.022296682239663</v>
+        <v>1.049327489351285</v>
       </c>
       <c r="E16">
-        <v>0.9921047415587085</v>
+        <v>1.040092399730955</v>
       </c>
       <c r="F16">
-        <v>1.016220674412625</v>
+        <v>1.056180831172076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040517215866972</v>
+        <v>1.042206457148835</v>
       </c>
       <c r="J16">
-        <v>1.011567538147601</v>
+        <v>1.048157639507159</v>
       </c>
       <c r="K16">
-        <v>1.036239172938054</v>
+        <v>1.052718167626407</v>
       </c>
       <c r="L16">
-        <v>1.006580923946792</v>
+        <v>1.043515390411158</v>
       </c>
       <c r="M16">
-        <v>1.030267271733345</v>
+        <v>1.05954793228483</v>
       </c>
       <c r="N16">
-        <v>1.013004080080189</v>
+        <v>1.049646143580621</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9856343445379591</v>
+        <v>1.042403111056593</v>
       </c>
       <c r="D17">
-        <v>1.023979367313484</v>
+        <v>1.049640084666657</v>
       </c>
       <c r="E17">
-        <v>0.9944848327596383</v>
+        <v>1.040540877198316</v>
       </c>
       <c r="F17">
-        <v>1.018391548571759</v>
+        <v>1.056596892613509</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041409397555024</v>
+        <v>1.042340568397461</v>
       </c>
       <c r="J17">
-        <v>1.013655991242099</v>
+        <v>1.048542018149526</v>
       </c>
       <c r="K17">
-        <v>1.037579620711333</v>
+        <v>1.052959068192978</v>
       </c>
       <c r="L17">
-        <v>1.008590258838903</v>
+        <v>1.04389096847954</v>
       </c>
       <c r="M17">
-        <v>1.032084612824513</v>
+        <v>1.059892489578163</v>
       </c>
       <c r="N17">
-        <v>1.015095499017631</v>
+        <v>1.050031068084749</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9873095469821764</v>
+        <v>1.042707479066892</v>
       </c>
       <c r="D18">
-        <v>1.024951750032074</v>
+        <v>1.049822390706014</v>
       </c>
       <c r="E18">
-        <v>0.9958590135509072</v>
+        <v>1.04080243238192</v>
       </c>
       <c r="F18">
-        <v>1.019645958831188</v>
+        <v>1.056839582100113</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041923309964104</v>
+        <v>1.042418627205172</v>
       </c>
       <c r="J18">
-        <v>1.014860708363174</v>
+        <v>1.048766093795545</v>
       </c>
       <c r="K18">
-        <v>1.038353248234214</v>
+        <v>1.053099478039093</v>
       </c>
       <c r="L18">
-        <v>1.009749610709222</v>
+        <v>1.044109935225035</v>
       </c>
       <c r="M18">
-        <v>1.033133980455801</v>
+        <v>1.060093401231917</v>
       </c>
       <c r="N18">
-        <v>1.0163019269752</v>
+        <v>1.050255461943887</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9878776810538924</v>
+        <v>1.042811248049381</v>
       </c>
       <c r="D19">
-        <v>1.025281793089555</v>
+        <v>1.049884548043057</v>
       </c>
       <c r="E19">
-        <v>0.9963252347373878</v>
+        <v>1.040891610234109</v>
       </c>
       <c r="F19">
-        <v>1.020071714657957</v>
+        <v>1.056922334323357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042097460629769</v>
+        <v>1.042445215107346</v>
       </c>
       <c r="J19">
-        <v>1.015269252386137</v>
+        <v>1.048842476526864</v>
       </c>
       <c r="K19">
-        <v>1.038615664415232</v>
+        <v>1.053147336658092</v>
       </c>
       <c r="L19">
-        <v>1.01014281650712</v>
+        <v>1.044184580072725</v>
       </c>
       <c r="M19">
-        <v>1.033490015136457</v>
+        <v>1.06016189630514</v>
       </c>
       <c r="N19">
-        <v>1.016711051177536</v>
+        <v>1.050331953147445</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9853247319665772</v>
+        <v>1.042347118820019</v>
       </c>
       <c r="D20">
-        <v>1.023799779258076</v>
+        <v>1.049606548792273</v>
       </c>
       <c r="E20">
-        <v>0.9942309405840278</v>
+        <v>1.040492763362534</v>
       </c>
       <c r="F20">
-        <v>1.018159866904736</v>
+        <v>1.056552252353813</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041314350010112</v>
+        <v>1.04232619670785</v>
       </c>
       <c r="J20">
-        <v>1.013433321597432</v>
+        <v>1.048500791003918</v>
       </c>
       <c r="K20">
-        <v>1.037436661089459</v>
+        <v>1.05293323254165</v>
       </c>
       <c r="L20">
-        <v>1.008375996191705</v>
+        <v>1.043850683034514</v>
       </c>
       <c r="M20">
-        <v>1.031890740003661</v>
+        <v>1.059855528346467</v>
       </c>
       <c r="N20">
-        <v>1.014872513156527</v>
+        <v>1.049989782391865</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9768022392232779</v>
+        <v>1.040837294955159</v>
       </c>
       <c r="D21">
-        <v>1.018872416946495</v>
+        <v>1.048702445066661</v>
       </c>
       <c r="E21">
-        <v>0.9872527240828001</v>
+        <v>1.039195666114693</v>
       </c>
       <c r="F21">
-        <v>1.011802204218016</v>
+        <v>1.055349169581277</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038690699532197</v>
+        <v>1.041937303288366</v>
       </c>
       <c r="J21">
-        <v>1.007302919194293</v>
+        <v>1.0473884521546</v>
       </c>
       <c r="K21">
-        <v>1.033504854586222</v>
+        <v>1.052235942432673</v>
       </c>
       <c r="L21">
-        <v>1.002479689919893</v>
+        <v>1.042763951696791</v>
       </c>
       <c r="M21">
-        <v>1.026563377671921</v>
+        <v>1.058858755449072</v>
       </c>
       <c r="N21">
-        <v>1.008733404878808</v>
+        <v>1.048875863893795</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9712603944361361</v>
+        <v>1.039887300535375</v>
       </c>
       <c r="D22">
-        <v>1.015685332990018</v>
+        <v>1.048133765160456</v>
       </c>
       <c r="E22">
-        <v>0.9827260196299823</v>
+        <v>1.038379802829231</v>
       </c>
       <c r="F22">
-        <v>1.007688628891753</v>
+        <v>1.0545928049667</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036977990403813</v>
+        <v>1.041691289193284</v>
       </c>
       <c r="J22">
-        <v>1.003315955943419</v>
+        <v>1.046687927018796</v>
       </c>
       <c r="K22">
-        <v>1.030952335485443</v>
+        <v>1.051796591364321</v>
       </c>
       <c r="L22">
-        <v>0.9986476240186619</v>
+        <v>1.042079747669683</v>
       </c>
       <c r="M22">
-        <v>1.023109295938719</v>
+        <v>1.058231469663559</v>
       </c>
       <c r="N22">
-        <v>1.004740779682807</v>
+        <v>1.048174343931946</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9742164915878918</v>
+        <v>1.04039097912947</v>
       </c>
       <c r="D23">
-        <v>1.017383673025124</v>
+        <v>1.048435255520002</v>
       </c>
       <c r="E23">
-        <v>0.9851395451631616</v>
+        <v>1.038812339300795</v>
       </c>
       <c r="F23">
-        <v>1.009880835476771</v>
+        <v>1.05499376282654</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0378921563785</v>
+        <v>1.041821848510881</v>
       </c>
       <c r="J23">
-        <v>1.005442675132071</v>
+        <v>1.047059398923338</v>
       </c>
       <c r="K23">
-        <v>1.032313421895315</v>
+        <v>1.052029588785029</v>
       </c>
       <c r="L23">
-        <v>1.000691464041958</v>
+        <v>1.042442546457743</v>
       </c>
       <c r="M23">
-        <v>1.024950722248459</v>
+        <v>1.058564060699914</v>
       </c>
       <c r="N23">
-        <v>1.006870519056645</v>
+        <v>1.048546343369201</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9854646895075531</v>
+        <v>1.042372419534076</v>
       </c>
       <c r="D24">
-        <v>1.023880955414403</v>
+        <v>1.049621702289358</v>
       </c>
       <c r="E24">
-        <v>0.994345706930166</v>
+        <v>1.040514504039315</v>
       </c>
       <c r="F24">
-        <v>1.018264590314527</v>
+        <v>1.056572423341381</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041357317886158</v>
+        <v>1.042332691168733</v>
       </c>
       <c r="J24">
-        <v>1.013533977845136</v>
+        <v>1.048519420165391</v>
       </c>
       <c r="K24">
-        <v>1.037501283765436</v>
+        <v>1.052944906879897</v>
       </c>
       <c r="L24">
-        <v>1.00847285126621</v>
+        <v>1.043868886606885</v>
       </c>
       <c r="M24">
-        <v>1.031978375628626</v>
+        <v>1.059872229730158</v>
       </c>
       <c r="N24">
-        <v>1.014973312347648</v>
+        <v>1.050008438008884</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9977989021351416</v>
+        <v>1.044668831708335</v>
       </c>
       <c r="D25">
-        <v>1.031066529705879</v>
+        <v>1.050997508537227</v>
       </c>
       <c r="E25">
-        <v>1.004481125909369</v>
+        <v>1.042488442044902</v>
       </c>
       <c r="F25">
-        <v>1.027533447449089</v>
+        <v>1.058404685170926</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045125993920748</v>
+        <v>1.042918986058251</v>
       </c>
       <c r="J25">
-        <v>1.022400569742835</v>
+        <v>1.050208763877276</v>
       </c>
       <c r="K25">
-        <v>1.043200986854105</v>
+        <v>1.054003030027271</v>
       </c>
       <c r="L25">
-        <v>1.017010274185163</v>
+        <v>1.045520098755983</v>
       </c>
       <c r="M25">
-        <v>1.039718865423117</v>
+        <v>1.061387828749367</v>
       </c>
       <c r="N25">
-        <v>1.023852495822854</v>
+        <v>1.051700180782611</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046498230165854</v>
+        <v>1.007133070117564</v>
       </c>
       <c r="D2">
-        <v>1.05209406302</v>
+        <v>1.036544413124885</v>
       </c>
       <c r="E2">
-        <v>1.044061878458996</v>
+        <v>1.012179072078549</v>
       </c>
       <c r="F2">
-        <v>1.059866396611977</v>
+        <v>1.034599622321805</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043381393377614</v>
+        <v>1.047949686105461</v>
       </c>
       <c r="J2">
-        <v>1.051552304943406</v>
+        <v>1.029102505512308</v>
       </c>
       <c r="K2">
-        <v>1.054843747740171</v>
+        <v>1.047517062985872</v>
       </c>
       <c r="L2">
-        <v>1.046833987233666</v>
+        <v>1.023471301106303</v>
       </c>
       <c r="M2">
-        <v>1.062594733175358</v>
+        <v>1.045597089359485</v>
       </c>
       <c r="N2">
-        <v>1.053045629831161</v>
+        <v>1.030563949109861</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047825331144027</v>
+        <v>1.013650896835905</v>
       </c>
       <c r="D3">
-        <v>1.052889814815167</v>
+        <v>1.040388883959751</v>
       </c>
       <c r="E3">
-        <v>1.045203821032957</v>
+        <v>1.017568478880773</v>
       </c>
       <c r="F3">
-        <v>1.060927931873474</v>
+        <v>1.039559980244069</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043714129534724</v>
+        <v>1.049903456604224</v>
       </c>
       <c r="J3">
-        <v>1.052525638492577</v>
+        <v>1.033776217901042</v>
       </c>
       <c r="K3">
-        <v>1.05545232037632</v>
+        <v>1.050529801940744</v>
       </c>
       <c r="L3">
-        <v>1.047786227858745</v>
+        <v>1.027981396325915</v>
       </c>
       <c r="M3">
-        <v>1.063469956949974</v>
+        <v>1.049710519598567</v>
       </c>
       <c r="N3">
-        <v>1.054020345625614</v>
+        <v>1.03524429870625</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048683522913168</v>
+        <v>1.017757705306228</v>
       </c>
       <c r="D4">
-        <v>1.053404517575569</v>
+        <v>1.042819100818127</v>
       </c>
       <c r="E4">
-        <v>1.045942514299506</v>
+        <v>1.020970246810154</v>
       </c>
       <c r="F4">
-        <v>1.06161491885446</v>
+        <v>1.042696484583626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043928042891626</v>
+        <v>1.051125724637714</v>
       </c>
       <c r="J4">
-        <v>1.053154450728691</v>
+        <v>1.036717822285939</v>
       </c>
       <c r="K4">
-        <v>1.055845250439352</v>
+        <v>1.052426808594864</v>
       </c>
       <c r="L4">
-        <v>1.048401592720704</v>
+        <v>1.030821999661181</v>
       </c>
       <c r="M4">
-        <v>1.064035786435757</v>
+        <v>1.052305526914358</v>
       </c>
       <c r="N4">
-        <v>1.05465005084723</v>
+        <v>1.038190080506781</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049044182985811</v>
+        <v>1.019459006341171</v>
       </c>
       <c r="D5">
-        <v>1.053620850568019</v>
+        <v>1.04382758304459</v>
       </c>
       <c r="E5">
-        <v>1.04625301044205</v>
+        <v>1.022380828850721</v>
       </c>
       <c r="F5">
-        <v>1.061903753724952</v>
+        <v>1.043998323558237</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044017640075369</v>
+        <v>1.051629890680595</v>
       </c>
       <c r="J5">
-        <v>1.053418566227334</v>
+        <v>1.037935581736623</v>
       </c>
       <c r="K5">
-        <v>1.056010233562708</v>
+        <v>1.053212250552524</v>
       </c>
       <c r="L5">
-        <v>1.048660102921622</v>
+        <v>1.031998415247965</v>
       </c>
       <c r="M5">
-        <v>1.064273542676538</v>
+        <v>1.05338118375467</v>
       </c>
       <c r="N5">
-        <v>1.054914541420175</v>
+        <v>1.039409569315564</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049104732242517</v>
+        <v>1.019743220300857</v>
       </c>
       <c r="D6">
-        <v>1.053657171019764</v>
+        <v>1.043996154417884</v>
       </c>
       <c r="E6">
-        <v>1.046305141211187</v>
+        <v>1.022616553648806</v>
       </c>
       <c r="F6">
-        <v>1.061952251896366</v>
+        <v>1.044215947462926</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044032664385517</v>
+        <v>1.051713985234317</v>
       </c>
       <c r="J6">
-        <v>1.053462898536728</v>
+        <v>1.038138965674074</v>
       </c>
       <c r="K6">
-        <v>1.056037922967937</v>
+        <v>1.053343436274046</v>
       </c>
       <c r="L6">
-        <v>1.048703496885129</v>
+        <v>1.032194921513653</v>
       </c>
       <c r="M6">
-        <v>1.064313456075441</v>
+        <v>1.053560913742984</v>
       </c>
       <c r="N6">
-        <v>1.054958936686534</v>
+        <v>1.039613242081535</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048688342552655</v>
+        <v>1.017780535557354</v>
       </c>
       <c r="D7">
-        <v>1.053407408416065</v>
+        <v>1.042832627279882</v>
       </c>
       <c r="E7">
-        <v>1.045946663359947</v>
+        <v>1.020989170564028</v>
       </c>
       <c r="F7">
-        <v>1.061618778178576</v>
+        <v>1.042713944642012</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043929241397357</v>
+        <v>1.051132498878381</v>
       </c>
       <c r="J7">
-        <v>1.053157980782134</v>
+        <v>1.036734167152599</v>
       </c>
       <c r="K7">
-        <v>1.055847455755513</v>
+        <v>1.052437350465502</v>
       </c>
       <c r="L7">
-        <v>1.048405047687585</v>
+        <v>1.030837787762192</v>
       </c>
       <c r="M7">
-        <v>1.064038963810641</v>
+        <v>1.052319959092054</v>
       </c>
       <c r="N7">
-        <v>1.054653585913753</v>
+        <v>1.038206448585027</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046946842242331</v>
+        <v>1.009359520683924</v>
       </c>
       <c r="D8">
-        <v>1.052363033031428</v>
+        <v>1.037855909263979</v>
       </c>
       <c r="E8">
-        <v>1.044447850132393</v>
+        <v>1.014018756341285</v>
       </c>
       <c r="F8">
-        <v>1.060225126742871</v>
+        <v>1.036291631971851</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04349413111138</v>
+        <v>1.048618888270565</v>
       </c>
       <c r="J8">
-        <v>1.051881455857084</v>
+        <v>1.030699663475721</v>
       </c>
       <c r="K8">
-        <v>1.055049595502003</v>
+        <v>1.048546397779395</v>
       </c>
       <c r="L8">
-        <v>1.047155967935823</v>
+        <v>1.025012124796881</v>
       </c>
       <c r="M8">
-        <v>1.062890623001984</v>
+        <v>1.04700146446249</v>
       </c>
       <c r="N8">
-        <v>1.053375248176891</v>
+        <v>1.03216337522076</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043873872385652</v>
+        <v>0.9936098108543524</v>
       </c>
       <c r="D9">
-        <v>1.050521150895609</v>
+        <v>1.028619157747337</v>
       </c>
       <c r="E9">
-        <v>1.041804968660973</v>
+        <v>1.001034114440551</v>
       </c>
       <c r="F9">
-        <v>1.057770077548897</v>
+        <v>1.024376665597927</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042716745317592</v>
+        <v>1.04385030709237</v>
       </c>
       <c r="J9">
-        <v>1.049624302818434</v>
+        <v>1.019390258896696</v>
       </c>
       <c r="K9">
-        <v>1.053637075250404</v>
+        <v>1.04126436751131</v>
       </c>
       <c r="L9">
-        <v>1.044948725445096</v>
+        <v>1.014110436110757</v>
       </c>
       <c r="M9">
-        <v>1.060863236515641</v>
+        <v>1.037086252237339</v>
       </c>
       <c r="N9">
-        <v>1.051114889722026</v>
+        <v>1.020837909990026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041822167848874</v>
+        <v>0.9823999270411197</v>
       </c>
       <c r="D10">
-        <v>1.049292159605881</v>
+        <v>1.02210526882208</v>
       </c>
       <c r="E10">
-        <v>1.040041712777995</v>
+        <v>0.9918338231047226</v>
       </c>
       <c r="F10">
-        <v>1.056133813259762</v>
+        <v>1.015973713756504</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04219127880502</v>
+        <v>1.040415498619939</v>
       </c>
       <c r="J10">
-        <v>1.048114183920264</v>
+        <v>1.011329667573891</v>
       </c>
       <c r="K10">
-        <v>1.052690929537056</v>
+        <v>1.036086555442673</v>
       </c>
       <c r="L10">
-        <v>1.043472932670255</v>
+        <v>1.006352102531331</v>
       </c>
       <c r="M10">
-        <v>1.059508985467867</v>
+        <v>1.030060425461352</v>
       </c>
       <c r="N10">
-        <v>1.049602626281808</v>
+        <v>1.01276587170298</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040932982696108</v>
+        <v>0.977352566216879</v>
       </c>
       <c r="D11">
-        <v>1.048759733345846</v>
+        <v>1.019189646771903</v>
       </c>
       <c r="E11">
-        <v>1.039277855585875</v>
+        <v>0.987702717159875</v>
       </c>
       <c r="F11">
-        <v>1.055425380758042</v>
+        <v>1.012211587678676</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041962027129596</v>
+        <v>1.038860514200523</v>
       </c>
       <c r="J11">
-        <v>1.047458985513404</v>
+        <v>1.007698827639422</v>
       </c>
       <c r="K11">
-        <v>1.052280170159948</v>
+        <v>1.033758526379802</v>
       </c>
       <c r="L11">
-        <v>1.042832849968773</v>
+        <v>1.002860329079874</v>
       </c>
       <c r="M11">
-        <v>1.058921934121521</v>
+        <v>1.026906828131637</v>
       </c>
       <c r="N11">
-        <v>1.048946497418058</v>
+        <v>1.009129875559341</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040602577700281</v>
+        <v>0.9754462909849222</v>
       </c>
       <c r="D12">
-        <v>1.048561926132229</v>
+        <v>1.018091362506101</v>
       </c>
       <c r="E12">
-        <v>1.038994068776345</v>
+        <v>0.9861443522666846</v>
       </c>
       <c r="F12">
-        <v>1.055162248097219</v>
+        <v>1.010794209734911</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041876613425126</v>
+        <v>1.038272081708664</v>
       </c>
       <c r="J12">
-        <v>1.047215416511979</v>
+        <v>1.006327427161146</v>
       </c>
       <c r="K12">
-        <v>1.05212743394182</v>
+        <v>1.032879978753096</v>
       </c>
       <c r="L12">
-        <v>1.042594933731784</v>
+        <v>1.001541907563898</v>
       </c>
       <c r="M12">
-        <v>1.058703777830657</v>
+        <v>1.0257174909642</v>
       </c>
       <c r="N12">
-        <v>1.048702582520713</v>
+        <v>1.007756527535084</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040673456285533</v>
+        <v>0.9758566586771026</v>
       </c>
       <c r="D13">
-        <v>1.048604358288578</v>
+        <v>1.018327657573436</v>
       </c>
       <c r="E13">
-        <v>1.039054944600119</v>
+        <v>0.9864797380756652</v>
       </c>
       <c r="F13">
-        <v>1.055218690484245</v>
+        <v>1.011099169071891</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041894946707612</v>
+        <v>1.038398804681455</v>
       </c>
       <c r="J13">
-        <v>1.047267671945964</v>
+        <v>1.006622654566219</v>
       </c>
       <c r="K13">
-        <v>1.052160203718719</v>
+        <v>1.033069070674101</v>
       </c>
       <c r="L13">
-        <v>1.042645974900163</v>
+        <v>1.001825709291157</v>
       </c>
       <c r="M13">
-        <v>1.058750577610451</v>
+        <v>1.025973441101061</v>
       </c>
       <c r="N13">
-        <v>1.048754912163409</v>
+        <v>1.008052174196935</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040905673830687</v>
+        <v>0.9771956495484306</v>
       </c>
       <c r="D14">
-        <v>1.048743383367361</v>
+        <v>1.019099180419598</v>
       </c>
       <c r="E14">
-        <v>1.039254398843081</v>
+        <v>0.9875744003659374</v>
       </c>
       <c r="F14">
-        <v>1.055403629919895</v>
+        <v>1.012094842427367</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041954972103158</v>
+        <v>1.038812099503778</v>
       </c>
       <c r="J14">
-        <v>1.047438856102319</v>
+        <v>1.007585941284202</v>
       </c>
       <c r="K14">
-        <v>1.052267548244004</v>
+        <v>1.033686192654905</v>
       </c>
       <c r="L14">
-        <v>1.042813187038092</v>
+        <v>1.00275179440433</v>
       </c>
       <c r="M14">
-        <v>1.058903903287759</v>
+        <v>1.026808890840607</v>
       </c>
       <c r="N14">
-        <v>1.0489263394209</v>
+        <v>1.009016828892549</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041048734423542</v>
+        <v>0.978016400750511</v>
       </c>
       <c r="D15">
-        <v>1.048829035936253</v>
+        <v>1.019572482755885</v>
       </c>
       <c r="E15">
-        <v>1.039377281649306</v>
+        <v>0.9882456368056795</v>
       </c>
       <c r="F15">
-        <v>1.055517578587041</v>
+        <v>1.012705621209638</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041991921329159</v>
+        <v>1.039065286084751</v>
       </c>
       <c r="J15">
-        <v>1.047544301839294</v>
+        <v>1.008176388389896</v>
       </c>
       <c r="K15">
-        <v>1.052333665270907</v>
+        <v>1.034064563098311</v>
       </c>
       <c r="L15">
-        <v>1.042916190541015</v>
+        <v>1.003319498728062</v>
       </c>
       <c r="M15">
-        <v>1.058998359100879</v>
+        <v>1.027321221737051</v>
       </c>
       <c r="N15">
-        <v>1.049031934902916</v>
+        <v>1.009608114500858</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041881163262174</v>
+        <v>0.9827306296930869</v>
       </c>
       <c r="D16">
-        <v>1.049327489351285</v>
+        <v>1.022296682239662</v>
       </c>
       <c r="E16">
-        <v>1.040092399730955</v>
+        <v>0.9921047415587069</v>
       </c>
       <c r="F16">
-        <v>1.056180831172076</v>
+        <v>1.016220674412623</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042206457148835</v>
+        <v>1.040517215866971</v>
       </c>
       <c r="J16">
-        <v>1.048157639507159</v>
+        <v>1.011567538147599</v>
       </c>
       <c r="K16">
-        <v>1.052718167626407</v>
+        <v>1.036239172938052</v>
       </c>
       <c r="L16">
-        <v>1.043515390411158</v>
+        <v>1.006580923946791</v>
       </c>
       <c r="M16">
-        <v>1.05954793228483</v>
+        <v>1.030267271733344</v>
       </c>
       <c r="N16">
-        <v>1.049646143580621</v>
+        <v>1.013004080080187</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042403111056593</v>
+        <v>0.9856343445379602</v>
       </c>
       <c r="D17">
-        <v>1.049640084666657</v>
+        <v>1.023979367313485</v>
       </c>
       <c r="E17">
-        <v>1.040540877198316</v>
+        <v>0.9944848327596396</v>
       </c>
       <c r="F17">
-        <v>1.056596892613509</v>
+        <v>1.01839154857176</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042340568397461</v>
+        <v>1.041409397555025</v>
       </c>
       <c r="J17">
-        <v>1.048542018149526</v>
+        <v>1.013655991242101</v>
       </c>
       <c r="K17">
-        <v>1.052959068192978</v>
+        <v>1.037579620711334</v>
       </c>
       <c r="L17">
-        <v>1.04389096847954</v>
+        <v>1.008590258838904</v>
       </c>
       <c r="M17">
-        <v>1.059892489578163</v>
+        <v>1.032084612824514</v>
       </c>
       <c r="N17">
-        <v>1.050031068084749</v>
+        <v>1.015095499017632</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042707479066892</v>
+        <v>0.9873095469821759</v>
       </c>
       <c r="D18">
-        <v>1.049822390706014</v>
+        <v>1.024951750032074</v>
       </c>
       <c r="E18">
-        <v>1.04080243238192</v>
+        <v>0.995859013550907</v>
       </c>
       <c r="F18">
-        <v>1.056839582100113</v>
+        <v>1.019645958831188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042418627205172</v>
+        <v>1.041923309964103</v>
       </c>
       <c r="J18">
-        <v>1.048766093795545</v>
+        <v>1.014860708363174</v>
       </c>
       <c r="K18">
-        <v>1.053099478039093</v>
+        <v>1.038353248234214</v>
       </c>
       <c r="L18">
-        <v>1.044109935225035</v>
+        <v>1.009749610709222</v>
       </c>
       <c r="M18">
-        <v>1.060093401231917</v>
+        <v>1.033133980455801</v>
       </c>
       <c r="N18">
-        <v>1.050255461943887</v>
+        <v>1.0163019269752</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042811248049381</v>
+        <v>0.9878776810538938</v>
       </c>
       <c r="D19">
-        <v>1.049884548043057</v>
+        <v>1.025281793089555</v>
       </c>
       <c r="E19">
-        <v>1.040891610234109</v>
+        <v>0.9963252347373887</v>
       </c>
       <c r="F19">
-        <v>1.056922334323357</v>
+        <v>1.020071714657957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042445215107346</v>
+        <v>1.042097460629769</v>
       </c>
       <c r="J19">
-        <v>1.048842476526864</v>
+        <v>1.015269252386138</v>
       </c>
       <c r="K19">
-        <v>1.053147336658092</v>
+        <v>1.038615664415232</v>
       </c>
       <c r="L19">
-        <v>1.044184580072725</v>
+        <v>1.010142816507121</v>
       </c>
       <c r="M19">
-        <v>1.06016189630514</v>
+        <v>1.033490015136457</v>
       </c>
       <c r="N19">
-        <v>1.050331953147445</v>
+        <v>1.016711051177537</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042347118820019</v>
+        <v>0.9853247319665764</v>
       </c>
       <c r="D20">
-        <v>1.049606548792273</v>
+        <v>1.023799779258076</v>
       </c>
       <c r="E20">
-        <v>1.040492763362534</v>
+        <v>0.9942309405840272</v>
       </c>
       <c r="F20">
-        <v>1.056552252353813</v>
+        <v>1.018159866904735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04232619670785</v>
+        <v>1.041314350010112</v>
       </c>
       <c r="J20">
-        <v>1.048500791003918</v>
+        <v>1.013433321597431</v>
       </c>
       <c r="K20">
-        <v>1.05293323254165</v>
+        <v>1.037436661089458</v>
       </c>
       <c r="L20">
-        <v>1.043850683034514</v>
+        <v>1.008375996191704</v>
       </c>
       <c r="M20">
-        <v>1.059855528346467</v>
+        <v>1.03189074000366</v>
       </c>
       <c r="N20">
-        <v>1.049989782391865</v>
+        <v>1.014872513156526</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040837294955159</v>
+        <v>0.976802239223277</v>
       </c>
       <c r="D21">
-        <v>1.048702445066661</v>
+        <v>1.018872416946494</v>
       </c>
       <c r="E21">
-        <v>1.039195666114693</v>
+        <v>0.9872527240827991</v>
       </c>
       <c r="F21">
-        <v>1.055349169581277</v>
+        <v>1.011802204218015</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041937303288366</v>
+        <v>1.038690699532197</v>
       </c>
       <c r="J21">
-        <v>1.0473884521546</v>
+        <v>1.007302919194292</v>
       </c>
       <c r="K21">
-        <v>1.052235942432673</v>
+        <v>1.033504854586221</v>
       </c>
       <c r="L21">
-        <v>1.042763951696791</v>
+        <v>1.002479689919892</v>
       </c>
       <c r="M21">
-        <v>1.058858755449072</v>
+        <v>1.02656337767192</v>
       </c>
       <c r="N21">
-        <v>1.048875863893795</v>
+        <v>1.008733404878808</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039887300535375</v>
+        <v>0.9712603944361361</v>
       </c>
       <c r="D22">
-        <v>1.048133765160456</v>
+        <v>1.015685332990018</v>
       </c>
       <c r="E22">
-        <v>1.038379802829231</v>
+        <v>0.9827260196299821</v>
       </c>
       <c r="F22">
-        <v>1.0545928049667</v>
+        <v>1.007688628891753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041691289193284</v>
+        <v>1.036977990403813</v>
       </c>
       <c r="J22">
-        <v>1.046687927018796</v>
+        <v>1.003315955943419</v>
       </c>
       <c r="K22">
-        <v>1.051796591364321</v>
+        <v>1.030952335485443</v>
       </c>
       <c r="L22">
-        <v>1.042079747669683</v>
+        <v>0.9986476240186617</v>
       </c>
       <c r="M22">
-        <v>1.058231469663559</v>
+        <v>1.023109295938718</v>
       </c>
       <c r="N22">
-        <v>1.048174343931946</v>
+        <v>1.004740779682807</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04039097912947</v>
+        <v>0.9742164915878918</v>
       </c>
       <c r="D23">
-        <v>1.048435255520002</v>
+        <v>1.017383673025124</v>
       </c>
       <c r="E23">
-        <v>1.038812339300795</v>
+        <v>0.9851395451631616</v>
       </c>
       <c r="F23">
-        <v>1.05499376282654</v>
+        <v>1.009880835476771</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041821848510881</v>
+        <v>1.0378921563785</v>
       </c>
       <c r="J23">
-        <v>1.047059398923338</v>
+        <v>1.005442675132071</v>
       </c>
       <c r="K23">
-        <v>1.052029588785029</v>
+        <v>1.032313421895315</v>
       </c>
       <c r="L23">
-        <v>1.042442546457743</v>
+        <v>1.000691464041958</v>
       </c>
       <c r="M23">
-        <v>1.058564060699914</v>
+        <v>1.02495072224846</v>
       </c>
       <c r="N23">
-        <v>1.048546343369201</v>
+        <v>1.006870519056645</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042372419534076</v>
+        <v>0.9854646895075529</v>
       </c>
       <c r="D24">
-        <v>1.049621702289358</v>
+        <v>1.023880955414403</v>
       </c>
       <c r="E24">
-        <v>1.040514504039315</v>
+        <v>0.9943457069301659</v>
       </c>
       <c r="F24">
-        <v>1.056572423341381</v>
+        <v>1.018264590314527</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042332691168733</v>
+        <v>1.041357317886158</v>
       </c>
       <c r="J24">
-        <v>1.048519420165391</v>
+        <v>1.013533977845136</v>
       </c>
       <c r="K24">
-        <v>1.052944906879897</v>
+        <v>1.037501283765436</v>
       </c>
       <c r="L24">
-        <v>1.043868886606885</v>
+        <v>1.00847285126621</v>
       </c>
       <c r="M24">
-        <v>1.059872229730158</v>
+        <v>1.031978375628626</v>
       </c>
       <c r="N24">
-        <v>1.050008438008884</v>
+        <v>1.014973312347648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044668831708335</v>
+        <v>0.9977989021351407</v>
       </c>
       <c r="D25">
-        <v>1.050997508537227</v>
+        <v>1.031066529705879</v>
       </c>
       <c r="E25">
-        <v>1.042488442044902</v>
+        <v>1.004481125909368</v>
       </c>
       <c r="F25">
-        <v>1.058404685170926</v>
+        <v>1.027533447449088</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042918986058251</v>
+        <v>1.045125993920747</v>
       </c>
       <c r="J25">
-        <v>1.050208763877276</v>
+        <v>1.022400569742834</v>
       </c>
       <c r="K25">
-        <v>1.054003030027271</v>
+        <v>1.043200986854104</v>
       </c>
       <c r="L25">
-        <v>1.045520098755983</v>
+        <v>1.017010274185162</v>
       </c>
       <c r="M25">
-        <v>1.061387828749367</v>
+        <v>1.039718865423116</v>
       </c>
       <c r="N25">
-        <v>1.051700180782611</v>
+        <v>1.023852495822853</v>
       </c>
     </row>
   </sheetData>
